--- a/screening.xlsx
+++ b/screening.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16608" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="screening + -" sheetId="2" r:id="rId1"/>
@@ -51,14 +51,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,158 +67,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,198 +89,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -438,255 +102,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -694,58 +125,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent6" xfId="1" builtinId="51"/>
-    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
-    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
-    <cellStyle name="Percent" xfId="7" builtinId="5"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Accent4" xfId="9" builtinId="41"/>
-    <cellStyle name="60% - Accent3" xfId="10" builtinId="40"/>
-    <cellStyle name="20% - Accent3" xfId="11" builtinId="38"/>
-    <cellStyle name="Accent3" xfId="12" builtinId="37"/>
-    <cellStyle name="20% - Accent2" xfId="13" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="14" builtinId="33"/>
-    <cellStyle name="Accent6" xfId="15" builtinId="49"/>
-    <cellStyle name="60% - Accent1" xfId="16" builtinId="32"/>
-    <cellStyle name="Heading 4" xfId="17" builtinId="19"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="40% - Accent4" xfId="19" builtinId="43"/>
-    <cellStyle name="40% - Accent3" xfId="20" builtinId="39"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="Bad" xfId="22" builtinId="27"/>
-    <cellStyle name="Linked Cell" xfId="23" builtinId="24"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Note" xfId="27" builtinId="10"/>
-    <cellStyle name="Input" xfId="28" builtinId="20"/>
-    <cellStyle name="Good" xfId="29" builtinId="26"/>
-    <cellStyle name="60% - Accent2" xfId="30" builtinId="36"/>
-    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
-    <cellStyle name="Heading 3" xfId="32" builtinId="18"/>
-    <cellStyle name="Heading 1" xfId="33" builtinId="16"/>
-    <cellStyle name="60% - Accent6" xfId="34" builtinId="52"/>
-    <cellStyle name="20% - Accent1" xfId="35" builtinId="30"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="40% - Accent2" xfId="38" builtinId="35"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Accent1" xfId="40" builtinId="29"/>
-    <cellStyle name="CExplanatory Text" xfId="41" builtinId="53"/>
-    <cellStyle name="Currency" xfId="42" builtinId="4"/>
-    <cellStyle name="Warning Text" xfId="43" builtinId="11"/>
-    <cellStyle name="Currency [0]" xfId="44" builtinId="7"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1047,33 +481,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="4.33333333333333" customWidth="1"/>
-    <col min="3" max="4" width="3.88333333333333" customWidth="1"/>
+    <col min="1" max="2" width="4.33203125" customWidth="1"/>
+    <col min="3" max="4" width="3.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
@@ -1089,7 +523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1103,27 +537,23 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.775" customWidth="1"/>
-    <col min="2" max="2" width="9.21666666666667" customWidth="1"/>
-    <col min="3" max="3" width="10.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1131,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -1141,7 +571,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1151,7 +581,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1159,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1167,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1175,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1222,7 +652,7 @@
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -1231,7 +661,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1258,7 +688,7 @@
       <c r="C15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1651,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -1659,7 +1089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -1667,7 +1097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -1717,11 +1147,11 @@
       </c>
       <c r="H69" s="3">
         <f t="shared" ref="H69:I69" si="0">F69/F70</f>
-        <v>0.417910447761194</v>
+        <v>0.41791044776119401</v>
       </c>
       <c r="I69" s="3">
         <f t="shared" si="0"/>
-        <v>0.432835820895522</v>
+        <v>0.43283582089552203</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -1754,11 +1184,11 @@
     <row r="71" spans="1:9">
       <c r="A71" s="3">
         <f t="shared" ref="A71:B71" si="1">A69/A70</f>
-        <v>0.425373134328358</v>
+        <v>0.42537313432835799</v>
       </c>
       <c r="B71" s="3">
         <f t="shared" si="1"/>
-        <v>0.437810945273632</v>
+        <v>0.43781094527363201</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
@@ -1766,12 +1196,12 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="3:9">
+    <row r="72" spans="1:9">
       <c r="C72" t="s">
         <v>9</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:E72" si="2">D70-D69</f>
+        <f t="shared" ref="D72" si="2">D70-D69</f>
         <v>38.5</v>
       </c>
       <c r="E72">
@@ -1788,31 +1218,29 @@
       </c>
       <c r="H72" s="3">
         <f t="shared" ref="H72:I72" si="4">F72/F70</f>
-        <v>0.582089552238806</v>
+        <v>0.58208955223880599</v>
       </c>
       <c r="I72" s="3">
         <f t="shared" si="4"/>
-        <v>0.567164179104478</v>
+        <v>0.56716417910447803</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BQ19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BS19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BP16" sqref="BP16"/>
+    <sheetView tabSelected="1" topLeftCell="BG2" workbookViewId="0">
+      <selection activeCell="BS13" sqref="BS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:67">
+    <row r="1" spans="1:71">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2015,7 +1443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:67">
+    <row r="2" spans="1:71">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2218,7 +1646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:67">
+    <row r="3" spans="1:71">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2421,7 +1849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:67">
+    <row r="4" spans="1:71">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2624,7 +2052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:67">
+    <row r="5" spans="1:71">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2827,7 +2255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:67">
+    <row r="6" spans="1:71">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3030,7 +2458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:67">
+    <row r="7" spans="1:71">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3233,7 +2661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:67">
+    <row r="8" spans="1:71">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3436,7 +2864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:67">
+    <row r="9" spans="1:71">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3639,7 +3067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:71">
       <c r="A11">
         <f t="shared" ref="A11:A19" si="0">A1-1</f>
         <v>0</v>
@@ -3909,1405 +3337,1453 @@
         <v>1</v>
       </c>
       <c r="BP11">
-        <f>SUM(A11:BO11)</f>
+        <f t="shared" ref="BP11:BP19" si="67">SUM(A11:BO11)</f>
         <v>29</v>
       </c>
       <c r="BQ11">
-        <f t="shared" ref="BQ11:BQ19" si="67">67-BP11</f>
+        <f t="shared" ref="BQ11:BQ19" si="68">67-BP11</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:69">
+      <c r="BR11" s="3">
+        <f t="shared" ref="BR11:BR19" si="69">BP11/(BP11+BQ11)</f>
+        <v>0.43283582089552236</v>
+      </c>
+      <c r="BS11" s="3">
+        <f t="shared" ref="BS11:BS19" si="70">1-BR11</f>
+        <v>0.56716417910447769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71">
       <c r="A12">
-        <f t="shared" ref="A12:J14" si="68">1-(A2-1)</f>
+        <f t="shared" ref="A12:J14" si="71">1-(A2-1)</f>
         <v>1</v>
       </c>
       <c r="B12">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:T14" si="72">1-(K2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ref="U12:AD14" si="73">1-(U2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" ref="AE12:AN14" si="74">1-(AE2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" ref="AO12:AX14" si="75">1-(AO2-1)</f>
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" ref="AY12:BH14" si="76">1-(AY2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BC12">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BD12">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BG12">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <f t="shared" ref="BI12:BO14" si="77">1-(BI2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+      <c r="BK12">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <f t="shared" si="67"/>
+        <v>38</v>
+      </c>
+      <c r="BQ12">
         <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="C12">
+        <v>29</v>
+      </c>
+      <c r="BR12" s="3">
+        <f t="shared" si="69"/>
+        <v>0.56716417910447758</v>
+      </c>
+      <c r="BS12" s="3">
+        <f t="shared" si="70"/>
+        <v>0.43283582089552242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71">
+      <c r="A13">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BG13">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BH13">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <f t="shared" si="67"/>
+        <v>15</v>
+      </c>
+      <c r="BQ13">
         <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="D12">
+        <v>52</v>
+      </c>
+      <c r="BR13" s="3">
+        <f t="shared" si="69"/>
+        <v>0.22388059701492538</v>
+      </c>
+      <c r="BS13" s="3">
+        <f t="shared" si="70"/>
+        <v>0.77611940298507465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71">
+      <c r="A14">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BC14">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BD14">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="BH14">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+      <c r="BK14">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BL14">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+      <c r="BO14">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <f t="shared" si="67"/>
+        <v>33</v>
+      </c>
+      <c r="BQ14">
         <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="E12">
+        <v>34</v>
+      </c>
+      <c r="BR14" s="3">
+        <f t="shared" si="69"/>
+        <v>0.4925373134328358</v>
+      </c>
+      <c r="BS14" s="3">
+        <f t="shared" si="70"/>
+        <v>0.5074626865671642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:71">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="BH15">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="BI15">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="BL15">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+      <c r="BM15">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="BN15">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="BO15">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="BP15">
+        <f t="shared" si="67"/>
+        <v>26</v>
+      </c>
+      <c r="BQ15">
         <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f t="shared" ref="K12:T14" si="69">1-(K2-1)</f>
-        <v>1</v>
-      </c>
-      <c r="L12">
+        <v>41</v>
+      </c>
+      <c r="BR15" s="3">
         <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f t="shared" ref="U12:AD14" si="70">1-(U2-1)</f>
-        <v>1</v>
-      </c>
-      <c r="V12">
+        <v>0.38805970149253732</v>
+      </c>
+      <c r="BS15" s="3">
         <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" ref="AE12:AN14" si="71">1-(AE2-1)</f>
-        <v>1</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AI12">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AL12">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AM12">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AO12">
-        <f t="shared" ref="AO12:AX14" si="72">1-(AO2-1)</f>
-        <v>1</v>
-      </c>
-      <c r="AP12">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-      <c r="AQ12">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-      <c r="AR12">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-      <c r="AS12">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <f t="shared" ref="AY12:BH14" si="73">1-(AY2-1)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BB12">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BC12">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BD12">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BE12">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BG12">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="BI12">
-        <f t="shared" ref="BI12:BO14" si="74">1-(BI2-1)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <f t="shared" si="74"/>
-        <v>1</v>
-      </c>
-      <c r="BK12">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BO12">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BP12">
-        <f>SUM(A12:BO12)</f>
-        <v>38</v>
-      </c>
-      <c r="BQ12">
-        <f t="shared" si="67"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:69">
-      <c r="A13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-      <c r="AY13">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BA13">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BC13">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BE13">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BG13">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BH13">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BO13">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <f>SUM(A13:BO13)</f>
-        <v>15</v>
-      </c>
-      <c r="BQ13">
-        <f t="shared" si="67"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:69">
-      <c r="A14">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="68"/>
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="69"/>
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="70"/>
-        <v>1</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="AO14">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-      <c r="AQ14">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-      <c r="AR14">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-      <c r="AS14">
-        <f t="shared" si="72"/>
-        <v>1</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BA14">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BC14">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BD14">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BE14">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="BF14">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BG14">
-        <f t="shared" si="73"/>
-        <v>1</v>
-      </c>
-      <c r="BH14">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="BI14">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BJ14">
-        <f t="shared" si="74"/>
-        <v>1</v>
-      </c>
-      <c r="BK14">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <f t="shared" si="74"/>
-        <v>1</v>
-      </c>
-      <c r="BO14">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="BP14">
-        <f>SUM(A14:BO14)</f>
-        <v>33</v>
-      </c>
-      <c r="BQ14">
+        <v>0.61194029850746268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71">
+      <c r="A16">
+        <f t="shared" ref="A16:AF16" si="78">1-(A6-1)</f>
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" ref="AG16:BL16" si="79">1-(AG6-1)</f>
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="BB16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="BC16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="BD16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="BI16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <f>1-(BM6-1)</f>
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <f>1-(BN6-1)</f>
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <f>1-(BO6-1)</f>
+        <v>0</v>
+      </c>
+      <c r="BP16">
         <f t="shared" si="67"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:69">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="45"/>
-        <v>1</v>
-      </c>
-      <c r="AU15">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="AV15">
-        <f t="shared" si="47"/>
-        <v>1</v>
-      </c>
-      <c r="AW15">
-        <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="AX15">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="AZ15">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="BA15">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <f t="shared" si="53"/>
-        <v>1</v>
-      </c>
-      <c r="BC15">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="BD15">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="BE15">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="BF15">
-        <f t="shared" si="57"/>
-        <v>1</v>
-      </c>
-      <c r="BG15">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="BH15">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="BI15">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="BJ15">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="BK15">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="BL15">
-        <f t="shared" si="63"/>
-        <v>1</v>
-      </c>
-      <c r="BM15">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
-      <c r="BN15">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="BO15">
-        <f t="shared" si="66"/>
-        <v>1</v>
-      </c>
-      <c r="BP15">
-        <f>SUM(A15:BO15)</f>
-        <v>26</v>
-      </c>
-      <c r="BQ15">
-        <f t="shared" si="67"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:69">
-      <c r="A16">
-        <f t="shared" ref="A16:AF16" si="75">1-(A6-1)</f>
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="75"/>
-        <v>1</v>
-      </c>
-      <c r="AG16">
-        <f t="shared" ref="AG16:BL16" si="76">1-(AG6-1)</f>
-        <v>1</v>
-      </c>
-      <c r="AH16">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="AI16">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="AK16">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="AL16">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="AM16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="AO16">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="AP16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="AS16">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="AX16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="BA16">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="BB16">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="BC16">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="BD16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="BE16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="BF16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="BH16">
-        <f t="shared" si="76"/>
-        <v>1</v>
-      </c>
-      <c r="BI16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="BK16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <f>1-(BM6-1)</f>
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <f>1-(BN6-1)</f>
-        <v>0</v>
-      </c>
-      <c r="BO16">
-        <f>1-(BO6-1)</f>
-        <v>0</v>
-      </c>
-      <c r="BP16">
-        <f>SUM(A16:BO16)</f>
-        <v>34</v>
-      </c>
       <c r="BQ16">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:69">
+      <c r="BR16" s="3">
+        <f t="shared" si="69"/>
+        <v>0.5074626865671642</v>
+      </c>
+      <c r="BS16" s="3">
+        <f t="shared" si="70"/>
+        <v>0.4925373134328358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:71">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5577,15 +5053,23 @@
         <v>1</v>
       </c>
       <c r="BP17">
-        <f>SUM(A17:BO17)</f>
+        <f t="shared" si="67"/>
         <v>28</v>
       </c>
       <c r="BQ17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:69">
+      <c r="BR17" s="3">
+        <f t="shared" si="69"/>
+        <v>0.41791044776119401</v>
+      </c>
+      <c r="BS17" s="3">
+        <f t="shared" si="70"/>
+        <v>0.58208955223880599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:71">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5855,15 +5339,23 @@
         <v>1</v>
       </c>
       <c r="BP18">
-        <f>SUM(A18:BO18)</f>
+        <f t="shared" si="67"/>
         <v>30</v>
       </c>
       <c r="BQ18">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:69">
+      <c r="BR18" s="3">
+        <f t="shared" si="69"/>
+        <v>0.44776119402985076</v>
+      </c>
+      <c r="BS18" s="3">
+        <f t="shared" si="70"/>
+        <v>0.55223880597014929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:71">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6133,21 +5625,33 @@
         <v>1</v>
       </c>
       <c r="BP19">
-        <f>SUM(A19:BO19)</f>
+        <f t="shared" si="67"/>
         <v>30</v>
       </c>
       <c r="BQ19">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>37</v>
+      </c>
+      <c r="BR19" s="3">
+        <f t="shared" si="69"/>
+        <v>0.44776119402985076</v>
+      </c>
+      <c r="BS19" s="3">
+        <f t="shared" si="70"/>
+        <v>0.55223880597014929</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="BP11:BQ19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>33.5</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BR11:BS19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>